--- a/DATA/BABA_stock_data.xlsx
+++ b/DATA/BABA_stock_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2327"/>
+  <dimension ref="A1:G2328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53971,7 +53971,30 @@
         <v>72.51000213623047</v>
       </c>
       <c r="G2327" t="n">
-        <v>25148400</v>
+        <v>25199300</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B2328" t="n">
+        <v>74</v>
+      </c>
+      <c r="C2328" t="n">
+        <v>75.54499816894531</v>
+      </c>
+      <c r="D2328" t="n">
+        <v>73.31999969482422</v>
+      </c>
+      <c r="E2328" t="n">
+        <v>74.51000213623047</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>74.51000213623047</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>31266700</v>
       </c>
     </row>
   </sheetData>
